--- a/biology/Botanique/Geopora_sumneriana/Geopora_sumneriana.xlsx
+++ b/biology/Botanique/Geopora_sumneriana/Geopora_sumneriana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pézize des cèdres, Sépultarie de Sumner
 Geopora sumneriana, la Pézize des cèdres ou Sépultarie de Sumner, est une espèce européenne de champignons ascomycètes de la famille des Pyronemataceae. Le genre Geopora, auquel elle appartient, caractérise des champignons se développant sous le sol sous forme de sphères creuses, pour apparaître à la surface uniquement lors de l'ouverture. Cette espèce est principalement en association mycorhizienne avec les Cèdres.
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce champignon a un ascocarpe tapissé à l'extérieur de longs poils serrés brun-foncé. Il brise la surface du sol au printemps en se déchirant en étoile au sommet pour former une coupe de couleur interne (hyménium) gris blanchâtre à crème ocracée (apothécie) atteignant de 1 cm à 7 cm de diamètre et de 1 cm à 5 cm de hauteur. La chair est blanche, sa saveur insipide et son odeur sans particularité[1],[2]. 
-Par comparaison, les autres espèces européennes de Geopora sont plus petites, de 0,5 cm à 2 cm pour G. tenuis et G. arenicola, ou automnale, pour G. foliacea. Une autre espèce peut être confondue avec G. sumneriana, il s'agit de Sarcosphaera coronaria à la face externe lisse et interne violacée et se développant sous une large gamme de conifères[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce champignon a un ascocarpe tapissé à l'extérieur de longs poils serrés brun-foncé. Il brise la surface du sol au printemps en se déchirant en étoile au sommet pour former une coupe de couleur interne (hyménium) gris blanchâtre à crème ocracée (apothécie) atteignant de 1 cm à 7 cm de diamètre et de 1 cm à 5 cm de hauteur. La chair est blanche, sa saveur insipide et son odeur sans particularité,. 
+Par comparaison, les autres espèces européennes de Geopora sont plus petites, de 0,5 cm à 2 cm pour G. tenuis et G. arenicola, ou automnale, pour G. foliacea. Une autre espèce peut être confondue avec G. sumneriana, il s'agit de Sarcosphaera coronaria à la face externe lisse et interne violacée et se développant sous une large gamme de conifères.
 </t>
         </is>
       </c>
@@ -544,14 +558,16 @@
           <t>Écologie et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce ectomycorhizienne se rencontre en petits groupes préférentiellement sous les Cèdres[1],[2]. Quoique rares, d'autres associations sont possibles comme avec l'If commun[2] ou le Genévrier grec[3]. Geopora sumneriana peut être parasitée par un mycovirus de la famille des Narnaviridae nommé Mitovirus[4]. 
-Cette espèce se rencontre sur l'ensemble du continent européen[5], dont une majorité du territoire métropolitain français[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce ectomycorhizienne se rencontre en petits groupes préférentiellement sous les Cèdres,. Quoique rares, d'autres associations sont possibles comme avec l'If commun ou le Genévrier grec. Geopora sumneriana peut être parasitée par un mycovirus de la famille des Narnaviridae nommé Mitovirus. 
+Cette espèce se rencontre sur l'ensemble du continent européen, dont une majorité du territoire métropolitain français.
 			Düsseldorf (Allemagne)
 			Düsseldorf (Allemagne)
 			Düsseldorf (Allemagne)
-			Spores elliptiques, lisses et incolores dans un asque mûr à sommet non amyloïde[2].
+			Spores elliptiques, lisses et incolores dans un asque mûr à sommet non amyloïde.
 </t>
         </is>
       </c>
@@ -580,16 +596,122 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Geopora sumneriana (Cooke) M. Torre, 1975[7].
-L'espèce a été initialement classée dans le genre Peziza sous le basionyme Peziza sumneriana Cooke, 1877[7].
-Publication originale
-(es) M. de la Torre, « Estudio sobre "Discomycetes" operculados: clave y géneros nuevos para la flora española peninsular », Anales del Instituto Botánico A. J. Cavanilles, vol. 32, no 2,‎ 1975, p. 85-101 (ISSN 0365-0790, lire en ligne)
-Noms français
-Ce taxon porte en français les noms vulgarisés et normalisés « Pézize des cèdres »[2] et « Sépultarie de Sumner »[8].
-Synonymie
-Geopora sumneriana a pour synonymes[7] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Geopora sumneriana (Cooke) M. Torre, 1975.
+L'espèce a été initialement classée dans le genre Peziza sous le basionyme Peziza sumneriana Cooke, 1877.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Geopora_sumneriana</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geopora_sumneriana</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(es) M. de la Torre, « Estudio sobre "Discomycetes" operculados: clave y géneros nuevos para la flora española peninsular », Anales del Instituto Botánico A. J. Cavanilles, vol. 32, no 2,‎ 1975, p. 85-101 (ISSN 0365-0790, lire en ligne)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Geopora_sumneriana</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geopora_sumneriana</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Noms français</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon porte en français les noms vulgarisés et normalisés « Pézize des cèdres » et « Sépultarie de Sumner ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Geopora_sumneriana</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geopora_sumneriana</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geopora sumneriana a pour synonymes :
 Lachnea sumnerae (Berk. &amp; Broome) Sacc. &amp; Traverso, 1910
 Lachnea sumneri (Berk. &amp; Broome) Sacc. &amp; Traverso (1910), 1910
 Lachnea sumneriana (Cooke) W. Phillips, 1887
